--- a/result/7_pred.xlsx
+++ b/result/7_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B223"/>
+  <dimension ref="A1:B166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,1738 +487,1282 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>769683.5518</v>
+        <v>769685.5632</v>
       </c>
       <c r="B7" t="n">
-        <v>383181.8923</v>
+        <v>383198.4339</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>769685.5632</v>
+        <v>769687.2849</v>
       </c>
       <c r="B8" t="n">
-        <v>383198.4339</v>
+        <v>383212.5931</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>769685.5632</v>
+        <v>769913.0222</v>
       </c>
       <c r="B9" t="n">
-        <v>383198.4339</v>
+        <v>383185.1438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>769687.2849</v>
+        <v>769912.3067</v>
       </c>
       <c r="B10" t="n">
-        <v>383212.5931</v>
+        <v>383179.2602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>769913.0222</v>
+        <v>769928.3506</v>
       </c>
       <c r="B11" t="n">
-        <v>383185.1438</v>
+        <v>383177.3093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>769912.3067</v>
+        <v>769940.4711</v>
       </c>
       <c r="B12" t="n">
-        <v>383179.2602</v>
+        <v>383161.8331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>769928.3506</v>
+        <v>769938.8334</v>
       </c>
       <c r="B13" t="n">
-        <v>383177.3093</v>
+        <v>383148.3672</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>769940.4711</v>
+        <v>769930.6934</v>
       </c>
       <c r="B14" t="n">
-        <v>383161.8331</v>
+        <v>383149.357</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>769938.8334</v>
+        <v>769932.331</v>
       </c>
       <c r="B15" t="n">
-        <v>383148.3672</v>
+        <v>383162.8229</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>769930.6934</v>
+        <v>769927.3607</v>
       </c>
       <c r="B16" t="n">
-        <v>383149.357</v>
+        <v>383169.1692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>769932.331</v>
+        <v>769917.5708</v>
       </c>
       <c r="B17" t="n">
-        <v>383162.8229</v>
+        <v>383170.3596</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>769927.3607</v>
+        <v>769902.2408</v>
       </c>
       <c r="B18" t="n">
-        <v>383169.1692</v>
+        <v>383044.2883</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>769917.5708</v>
+        <v>769911.3808</v>
       </c>
       <c r="B19" t="n">
-        <v>383170.3596</v>
+        <v>383043.1769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>769902.2408</v>
+        <v>769917.7272</v>
       </c>
       <c r="B20" t="n">
-        <v>383044.2883</v>
+        <v>383048.1472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>769911.3808</v>
+        <v>769919.7061</v>
       </c>
       <c r="B21" t="n">
-        <v>383043.1769</v>
+        <v>383064.4216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>769917.7272</v>
+        <v>769927.8462</v>
       </c>
       <c r="B22" t="n">
-        <v>383048.1472</v>
+        <v>383063.4318</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>769919.7061</v>
+        <v>769925.8672</v>
       </c>
       <c r="B23" t="n">
-        <v>383064.4216</v>
+        <v>383047.1573</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>769927.8462</v>
+        <v>769910.437</v>
       </c>
       <c r="B24" t="n">
-        <v>383063.4318</v>
+        <v>383035.0312</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>769925.8672</v>
+        <v>769895.0429999999</v>
       </c>
       <c r="B25" t="n">
-        <v>383047.1573</v>
+        <v>383036.9031</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>769910.437</v>
+        <v>769894.2728</v>
       </c>
       <c r="B26" t="n">
-        <v>383035.0312</v>
+        <v>383030.9526</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>769895.0429999999</v>
+        <v>769685.2136</v>
       </c>
       <c r="B27" t="n">
-        <v>383036.9031</v>
+        <v>383056.3811</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>769894.2728</v>
+        <v>769686.5653</v>
       </c>
       <c r="B28" t="n">
-        <v>383030.9526</v>
+        <v>383117.2483</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>769685.2136</v>
+        <v>769800.1535499999</v>
       </c>
       <c r="B29" t="n">
-        <v>383056.3811</v>
+        <v>383198.86845</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>769686.5653</v>
+        <v>769909.9058000001</v>
       </c>
       <c r="B30" t="n">
-        <v>383117.2483</v>
+        <v>383107.32395</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>769800.1535499999</v>
+        <v>769789.7432</v>
       </c>
       <c r="B31" t="n">
-        <v>383198.86845</v>
+        <v>383043.66685</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>769909.9058000001</v>
+        <v>769829.8182523148</v>
       </c>
       <c r="B32" t="n">
-        <v>383107.32395</v>
+        <v>383121.6781772429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>769789.7432</v>
+        <v>769768.7976101495</v>
       </c>
       <c r="B33" t="n">
-        <v>383043.66685</v>
+        <v>383117.1525579783</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>769828.3296521702</v>
+        <v>769806.0006500001</v>
       </c>
       <c r="B34" t="n">
-        <v>383121.8627567902</v>
+        <v>383124.63145</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>769767.8627486466</v>
+        <v>769782.1830476853</v>
       </c>
       <c r="B35" t="n">
-        <v>383121.8029379596</v>
+        <v>383127.584722757</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>769782.7487500934</v>
+        <v>769758.3654453707</v>
       </c>
       <c r="B36" t="n">
-        <v>383119.9571424864</v>
+        <v>383130.5379955141</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>769813.4436507234</v>
+        <v>769816.432814779</v>
       </c>
       <c r="B37" t="n">
-        <v>383123.7085522634</v>
+        <v>383111.2460124641</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>769833.9268574202</v>
+        <v>769838.7737807151</v>
       </c>
       <c r="B38" t="n">
-        <v>383106.053857607</v>
+        <v>383096.3839385497</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>769797.6347515401</v>
+        <v>769843.2036898506</v>
       </c>
       <c r="B39" t="n">
-        <v>383118.1113470133</v>
+        <v>383132.1103420217</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>769837.6184483666</v>
+        <v>769792.6152124642</v>
       </c>
       <c r="B40" t="n">
-        <v>383135.8258605003</v>
+        <v>383114.1992852212</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>769762.2655433966</v>
+        <v>769755.4121726135</v>
       </c>
       <c r="B41" t="n">
-        <v>383137.6118371428</v>
+        <v>383106.7203931994</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>769758.5739524502</v>
+        <v>769819.386087536</v>
       </c>
       <c r="B42" t="n">
-        <v>383107.8398342495</v>
+        <v>383135.0636147788</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>769819.0408559736</v>
+        <v>769849.2059454939</v>
       </c>
       <c r="B43" t="n">
-        <v>383107.8996530802</v>
+        <v>383082.9985010137</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>769839.5240626705</v>
+        <v>769771.7508829065</v>
       </c>
       <c r="B44" t="n">
-        <v>383090.2449584237</v>
+        <v>383140.9701602929</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>769843.2156536167</v>
+        <v>769856.5891273866</v>
       </c>
       <c r="B45" t="n">
-        <v>383120.016961317</v>
+        <v>383142.5425068006</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>769846.9072445631</v>
+        <v>769846.1569626078</v>
       </c>
       <c r="B46" t="n">
-        <v>383149.7889642104</v>
+        <v>383155.9279443364</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>769777.1515448432</v>
+        <v>769832.7715250719</v>
       </c>
       <c r="B47" t="n">
-        <v>383135.7660416696</v>
+        <v>383145.4957795576</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>769752.9767472001</v>
+        <v>769747.9332805919</v>
       </c>
       <c r="B48" t="n">
-        <v>383123.6487334328</v>
+        <v>383143.92343305</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>769799.4805470132</v>
+        <v>769746.3609340843</v>
       </c>
       <c r="B49" t="n">
-        <v>383132.9973484599</v>
+        <v>383228.7616775301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>769822.7324469199</v>
+        <v>769795.5684852211</v>
       </c>
       <c r="B50" t="n">
-        <v>383137.6716559735</v>
+        <v>383138.0168875359</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>769749.2851562537</v>
+        <v>769779.2297749282</v>
       </c>
       <c r="B51" t="n">
-        <v>383093.8767305394</v>
+        <v>383103.7671204424</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>769773.4599538969</v>
+        <v>769742.0267350776</v>
       </c>
       <c r="B52" t="n">
-        <v>383105.9940387763</v>
+        <v>383096.2882284205</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>769852.5044498134</v>
+        <v>769761.3187181277</v>
       </c>
       <c r="B53" t="n">
-        <v>383133.9800650272</v>
+        <v>383154.3555978289</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>769747.3795419498</v>
+        <v>769803.0473772429</v>
       </c>
       <c r="B54" t="n">
-        <v>383139.457632616</v>
+        <v>383100.8138476853</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>769756.6683381463</v>
+        <v>769744.9800078347</v>
       </c>
       <c r="B55" t="n">
-        <v>383153.4207363261</v>
+        <v>383120.1058307353</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>769845.1212679206</v>
+        <v>769750.886553349</v>
       </c>
       <c r="B56" t="n">
-        <v>383074.4360592404</v>
+        <v>383167.7410353647</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>769848.812858867</v>
+        <v>769852.159218251</v>
       </c>
       <c r="B57" t="n">
-        <v>383104.2080621338</v>
+        <v>383106.8161033285</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>769788.3459553436</v>
+        <v>769743.4076613272</v>
       </c>
       <c r="B58" t="n">
-        <v>383104.1482433031</v>
+        <v>383204.9440752154</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>769803.2319567903</v>
+        <v>769853.5401445004</v>
       </c>
       <c r="B59" t="n">
-        <v>383102.30244783</v>
+        <v>383215.4719501233</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>769824.6380612238</v>
+        <v>769825.3883431791</v>
       </c>
       <c r="B60" t="n">
-        <v>383092.0907538969</v>
+        <v>383085.9517737709</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>769861.7932460099</v>
+        <v>769765.8443373924</v>
       </c>
       <c r="B61" t="n">
-        <v>383147.9431687373</v>
+        <v>383093.3349556635</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>769848.7530400364</v>
+        <v>769835.8205079581</v>
       </c>
       <c r="B62" t="n">
-        <v>383164.6749656572</v>
+        <v>383072.5663362349</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>769854.4100641172</v>
+        <v>769859.5424001436</v>
       </c>
       <c r="B63" t="n">
-        <v>383088.3991629505</v>
+        <v>383166.3601091153</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>769743.6879510036</v>
+        <v>769752.4588998564</v>
       </c>
       <c r="B64" t="n">
-        <v>383109.6856297227</v>
+        <v>383082.9027908847</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>769751.0711328962</v>
+        <v>769739.0734623206</v>
       </c>
       <c r="B65" t="n">
-        <v>383169.2296355094</v>
+        <v>383072.4706261059</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>769832.0212431165</v>
+        <v>769846.2526727368</v>
       </c>
       <c r="B66" t="n">
-        <v>383151.6347596836</v>
+        <v>383059.180898699</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>769739.9963600572</v>
+        <v>769734.643553185</v>
       </c>
       <c r="B67" t="n">
-        <v>383079.9136268292</v>
+        <v>383036.7442226338</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>769742.6454156056</v>
+        <v>769841.8227636012</v>
       </c>
       <c r="B68" t="n">
-        <v>383223.1764360461</v>
+        <v>383023.454495227</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>769861.7334271792</v>
+        <v>769849.1102353649</v>
       </c>
       <c r="B69" t="n">
-        <v>383208.4100722607</v>
+        <v>383179.7455466512</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>769843.2754724475</v>
+        <v>769863.9723092793</v>
       </c>
       <c r="B70" t="n">
-        <v>383059.5500577937</v>
+        <v>383202.0865125874</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>769771.554339593</v>
+        <v>769808.9539227572</v>
       </c>
       <c r="B71" t="n">
-        <v>383151.5749408529</v>
+        <v>383148.4490523147</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>769764.1711577004</v>
+        <v>769734.5478430559</v>
       </c>
       <c r="B72" t="n">
-        <v>383092.0309350662</v>
+        <v>383133.4912682712</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>769858.0418362329</v>
+        <v>769869.9745649225</v>
       </c>
       <c r="B73" t="n">
-        <v>383178.6380693673</v>
+        <v>383152.9746715794</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>769746.3968253825</v>
+        <v>769785.1363204424</v>
       </c>
       <c r="B74" t="n">
-        <v>383192.4815354161</v>
+        <v>383151.4023250717</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>769859.887631706</v>
+        <v>769862.5913830297</v>
       </c>
       <c r="B75" t="n">
-        <v>383193.524070814</v>
+        <v>383093.4306657925</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>769740.7996201324</v>
+        <v>769728.6412975418</v>
       </c>
       <c r="B76" t="n">
-        <v>383208.2904345993</v>
+        <v>383085.8560636418</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>769858.1016550635</v>
+        <v>769740.45438857</v>
       </c>
       <c r="B77" t="n">
-        <v>383118.1711658439</v>
+        <v>383181.1264729007</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>769808.7693432099</v>
+        <v>769859.6381102727</v>
       </c>
       <c r="B78" t="n">
-        <v>383146.96045217</v>
+        <v>383069.6130634779</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>769734.399154807</v>
+        <v>769867.0212921654</v>
       </c>
       <c r="B79" t="n">
-        <v>383095.7225260125</v>
+        <v>383129.1570692647</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>769738.1505645839</v>
+        <v>769753.8398261059</v>
       </c>
       <c r="B80" t="n">
-        <v>383065.0276253825</v>
+        <v>383191.5586376794</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>769738.0907457534</v>
+        <v>769789.6619397071</v>
       </c>
       <c r="B81" t="n">
-        <v>383125.494528906</v>
+        <v>383090.3816829064</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>769735.3818713743</v>
+        <v>769737.5011158129</v>
       </c>
       <c r="B82" t="n">
-        <v>383042.6986232125</v>
+        <v>383157.3088705859</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>769830.235266474</v>
+        <v>769756.793098863</v>
       </c>
       <c r="B83" t="n">
-        <v>383076.2818547136</v>
+        <v>383215.3762399942</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>769839.5838815011</v>
+        <v>769835.7247978289</v>
       </c>
       <c r="B84" t="n">
-        <v>383029.7780549002</v>
+        <v>383169.3133818724</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>769841.4296769743</v>
+        <v>769732.9754965482</v>
       </c>
       <c r="B85" t="n">
-        <v>383044.664056347</v>
+        <v>383218.3295127513</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>769863.6390414829</v>
+        <v>769873.0235478086</v>
       </c>
       <c r="B86" t="n">
-        <v>383162.829170184</v>
+        <v>383080.0452282567</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>769741.7823366997</v>
+        <v>769822.339360293</v>
       </c>
       <c r="B87" t="n">
-        <v>383155.2665317993</v>
+        <v>383158.8812170936</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>769786.4403410398</v>
+        <v>769731.5945702989</v>
       </c>
       <c r="B88" t="n">
-        <v>383149.7291453798</v>
+        <v>383109.6736659565</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>769860.0072693673</v>
+        <v>769877.3577468151</v>
       </c>
       <c r="B89" t="n">
-        <v>383072.5902637672</v>
+        <v>383212.5186773662</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>769732.4935405031</v>
+        <v>769880.4067297012</v>
       </c>
       <c r="B90" t="n">
-        <v>383141.3034280892</v>
+        <v>383139.5892340435</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>769867.39045126</v>
+        <v>769730.0222237912</v>
       </c>
       <c r="B91" t="n">
-        <v>383132.1342695541</v>
+        <v>383194.5119104366</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>769754.8823615038</v>
+        <v>769832.8672352009</v>
       </c>
       <c r="B92" t="n">
-        <v>383078.0678313561</v>
+        <v>383048.7487339202</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>769757.5314170523</v>
+        <v>769749.5056270994</v>
       </c>
       <c r="B93" t="n">
-        <v>383221.3306405729</v>
+        <v>383059.08518857</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>769846.8474257325</v>
+        <v>769774.7041556635</v>
       </c>
       <c r="B94" t="n">
-        <v>383210.2558677339</v>
+        <v>383164.7877626077</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>769779.057159147</v>
+        <v>769764.2719908848</v>
       </c>
       <c r="B95" t="n">
-        <v>383090.185139593</v>
+        <v>383178.1732001436</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>769876.6792474566</v>
+        <v>769840.1547069645</v>
       </c>
       <c r="B96" t="n">
-        <v>383146.0973732641</v>
+        <v>383205.0397853444</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>769808.8291620405</v>
+        <v>769770.1785363988</v>
       </c>
       <c r="B97" t="n">
-        <v>383086.4935486467</v>
+        <v>383225.808404773</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>769843.1558347861</v>
+        <v>769722.5433317695</v>
       </c>
       <c r="B98" t="n">
-        <v>383180.4838648405</v>
+        <v>383231.7149502872</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>769833.8670385897</v>
+        <v>769725.6880247847</v>
       </c>
       <c r="B99" t="n">
-        <v>383166.5207611303</v>
+        <v>383062.038461327</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>769765.9571343429</v>
+        <v>769724.1156782771</v>
       </c>
       <c r="B100" t="n">
-        <v>383167.3838400362</v>
+        <v>383146.8767058071</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>769863.6988603137</v>
+        <v>769872.9278376795</v>
       </c>
       <c r="B101" t="n">
-        <v>383102.3622666606</v>
+        <v>383176.7922738941</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>769869.2960655638</v>
+        <v>769856.6848375157</v>
       </c>
       <c r="B102" t="n">
-        <v>383086.5533674773</v>
+        <v>383045.7954611632</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>769755.6856215791</v>
+        <v>769812.0029056433</v>
       </c>
       <c r="B103" t="n">
-        <v>383206.4446391262</v>
+        <v>383075.519608992</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>769845.0016302593</v>
+        <v>769776.2765021712</v>
       </c>
       <c r="B104" t="n">
-        <v>383195.3698662871</v>
+        <v>383079.9495181276</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>769793.9431605937</v>
+        <v>769822.4350704221</v>
       </c>
       <c r="B105" t="n">
-        <v>383088.3393441198</v>
+        <v>383062.1341714561</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>769731.510823936</v>
+        <v>769762.8910646352</v>
       </c>
       <c r="B106" t="n">
-        <v>383194.3273308893</v>
+        <v>383069.5173533488</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>769737.108029186</v>
+        <v>769798.5217579782</v>
       </c>
       <c r="B107" t="n">
-        <v>383178.518431706</v>
+        <v>383161.8344898506</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>769725.1103586105</v>
+        <v>769718.2091327629</v>
       </c>
       <c r="B108" t="n">
-        <v>383081.7594223024</v>
+        <v>383099.2415011777</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>769760.3599290927</v>
+        <v>769829.7225421858</v>
       </c>
       <c r="B109" t="n">
-        <v>383183.1927392195</v>
+        <v>383218.4252228803</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>769728.8019495568</v>
+        <v>769721.16240552</v>
       </c>
       <c r="B110" t="n">
-        <v>383111.5314251957</v>
+        <v>383123.0591034924</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>769828.3894710008</v>
+        <v>769875.9768205656</v>
       </c>
       <c r="B111" t="n">
-        <v>383061.3958532668</v>
+        <v>383103.8628305714</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>769858.1614738941</v>
+        <v>769727.0689510342</v>
       </c>
       <c r="B112" t="n">
-        <v>383057.7042623205</v>
+        <v>383170.6943081218</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>769727.7594141589</v>
+        <v>769818.0051612866</v>
       </c>
       <c r="B113" t="n">
-        <v>383225.0222315192</v>
+        <v>383026.407767984</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>769876.6194286258</v>
+        <v>769767.2252636418</v>
       </c>
       <c r="B114" t="n">
-        <v>383206.5642767875</v>
+        <v>383201.9908024583</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>769818.0581394064</v>
+        <v>769883.3600024583</v>
       </c>
       <c r="B115" t="n">
-        <v>383160.9235558801</v>
+        <v>383163.4068363582</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>769753.0365660307</v>
+        <v>769758.4611554997</v>
       </c>
       <c r="B116" t="n">
-        <v>383063.1818299093</v>
+        <v>383033.7909498767</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>769854.4698829479</v>
+        <v>769719.5900590124</v>
       </c>
       <c r="B117" t="n">
-        <v>383027.932259427</v>
+        <v>383207.8973479724</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>769750.2678728208</v>
+        <v>769704.823695227</v>
       </c>
       <c r="B118" t="n">
-        <v>383040.8528277393</v>
+        <v>383088.8093363988</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>769872.9278376795</v>
+        <v>769715.2558600059</v>
       </c>
       <c r="B119" t="n">
-        <v>383176.7922738941</v>
+        <v>383075.423898863</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>769856.3156784209</v>
+        <v>769870.0702750515</v>
       </c>
       <c r="B120" t="n">
-        <v>383042.8182608738</v>
+        <v>383056.227625942</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>769874.7736331527</v>
+        <v>769893.7921672373</v>
       </c>
       <c r="B121" t="n">
-        <v>383191.6782753408</v>
+        <v>383150.0213988223</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>769725.9136186857</v>
+        <v>769710.7302407413</v>
       </c>
       <c r="B122" t="n">
-        <v>383210.1362300725</v>
+        <v>383136.4445410283</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>769780.8431357895</v>
+        <v>769710.8259508703</v>
       </c>
       <c r="B123" t="n">
-        <v>383165.538044563</v>
+        <v>383039.6974953909</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>769878.5250429297</v>
+        <v>769865.6403659158</v>
       </c>
       <c r="B124" t="n">
-        <v>383160.9833747108</v>
+        <v>383020.5012224698</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>769719.5131533602</v>
+        <v>769825.2926330501</v>
       </c>
       <c r="B125" t="n">
-        <v>383097.5683214857</v>
+        <v>383182.6988194083</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>769769.7683629505</v>
+        <v>769904.224332016</v>
       </c>
       <c r="B126" t="n">
-        <v>383076.2220358829</v>
+        <v>383136.6359612864</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>769874.8932708141</v>
+        <v>769883.4557125873</v>
       </c>
       <c r="B127" t="n">
-        <v>383070.744468294</v>
+        <v>383066.6597907208</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>769723.2047443066</v>
+        <v>769936.901752602</v>
       </c>
       <c r="B128" t="n">
-        <v>383127.3403243791</v>
+        <v>383205.1354954735</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>769872.9876565102</v>
+        <v>769811.9071955143</v>
       </c>
       <c r="B129" t="n">
-        <v>383116.3253703708</v>
+        <v>383172.2666546294</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>769723.2645631373</v>
+        <v>769886.4089853445</v>
       </c>
       <c r="B130" t="n">
-        <v>383066.8734208557</v>
+        <v>383090.4773930355</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>769717.6075390565</v>
+        <v>769887.789911594</v>
       </c>
       <c r="B131" t="n">
-        <v>383143.1492235623</v>
+        <v>383199.1332398303</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>769720.4958699276</v>
+        <v>769674.90812714</v>
       </c>
       <c r="B132" t="n">
-        <v>383044.5444186856</v>
+        <v>383237.6214958013</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>769824.6978800545</v>
+        <v>769901.1753491298</v>
       </c>
       <c r="B133" t="n">
-        <v>383031.6238503734</v>
+        <v>383209.5654046091</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>769826.5436755277</v>
+        <v>769890.8388944801</v>
       </c>
       <c r="B134" t="n">
-        <v>383046.5098518202</v>
+        <v>383126.2037965076</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>769891.5652489032</v>
+        <v>769716.6367862553</v>
       </c>
       <c r="B135" t="n">
-        <v>383144.2515777909</v>
+        <v>383184.0797456577</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>769726.896335253</v>
+        <v>769788.0895931994</v>
       </c>
       <c r="B136" t="n">
-        <v>383157.1123272725</v>
+        <v>383175.2199273865</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>769814.4263672907</v>
+        <v>769675.003837269</v>
       </c>
       <c r="B137" t="n">
-        <v>383070.6846494634</v>
+        <v>383140.8744501639</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>769803.1721379596</v>
+        <v>769896.8411501234</v>
       </c>
       <c r="B138" t="n">
-        <v>383162.7693513533</v>
+        <v>383077.0919554996</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>769882.2764527067</v>
+        <v>769681.0060929123</v>
       </c>
       <c r="B139" t="n">
-        <v>383130.2884740809</v>
+        <v>383091.7626091559</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>769772.417418499</v>
+        <v>769698.7257294548</v>
       </c>
       <c r="B140" t="n">
-        <v>383219.4848450997</v>
+        <v>383234.6682230443</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>769831.9614242858</v>
+        <v>769793.9961387136</v>
       </c>
       <c r="B141" t="n">
-        <v>383212.1016632071</v>
+        <v>383222.855132016</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>769884.1820670106</v>
+        <v>769777.6574284206</v>
       </c>
       <c r="B142" t="n">
-        <v>383084.7075720041</v>
+        <v>383188.6053649224</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>769828.2698333395</v>
+        <v>769780.6107011777</v>
       </c>
       <c r="B143" t="n">
-        <v>383182.3296603136</v>
+        <v>383212.4229672371</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>769710.2243571638</v>
+        <v>769709.1578942336</v>
       </c>
       <c r="B144" t="n">
-        <v>383083.6052177756</v>
+        <v>383221.2827855083</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>769878.5848617604</v>
+        <v>769713.6835134983</v>
       </c>
       <c r="B145" t="n">
-        <v>383100.5164711874</v>
+        <v>383160.262143343</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>769940.897560757</v>
+        <v>769798.6174681074</v>
       </c>
       <c r="B146" t="n">
-        <v>383115.4622914648</v>
+        <v>383065.0874442132</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>769938.1288675473</v>
+        <v>769700.2980759623</v>
       </c>
       <c r="B147" t="n">
-        <v>383093.1332892948</v>
+        <v>383149.8299785642</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>769716.6248224892</v>
+        <v>769926.5652979522</v>
       </c>
       <c r="B148" t="n">
-        <v>383196.1731263624</v>
+        <v>383121.773887372</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>769784.6543643973</v>
+        <v>769922.1353888166</v>
       </c>
       <c r="B149" t="n">
-        <v>383074.3762404097</v>
+        <v>383086.0474838999</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>769769.6487252892</v>
+        <v>769707.7769679842</v>
       </c>
       <c r="B150" t="n">
-        <v>383197.1558429296</v>
+        <v>383112.6269387135</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>769799.540365844</v>
+        <v>769809.0496328862</v>
       </c>
       <c r="B151" t="n">
-        <v>383072.5304449365</v>
+        <v>383051.7020066773</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>769775.2459305394</v>
+        <v>769706.2046214766</v>
       </c>
       <c r="B152" t="n">
-        <v>383181.3469437463</v>
+        <v>383197.4651831936</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>769722.2220277394</v>
+        <v>769913.2755705453</v>
       </c>
       <c r="B153" t="n">
-        <v>383180.3642271791</v>
+        <v>383014.5946769557</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>769951.0494358594</v>
+        <v>769773.3232294141</v>
       </c>
       <c r="B154" t="n">
-        <v>383197.3352994216</v>
+        <v>383056.1319158129</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>769830.1156288127</v>
+        <v>769670.5739281335</v>
       </c>
       <c r="B155" t="n">
-        <v>383197.2156617603</v>
+        <v>383105.1480466918</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>769665.5663528236</v>
+        <v>769816.3371046499</v>
       </c>
       <c r="B156" t="n">
-        <v>383089.142604195</v>
+        <v>383207.9930581015</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>769712.8734127122</v>
+        <v>769691.4382576912</v>
       </c>
       <c r="B157" t="n">
-        <v>383226.8680269924</v>
+        <v>383078.37717162</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>769891.5054300725</v>
+        <v>769694.3915304482</v>
       </c>
       <c r="B158" t="n">
-        <v>383204.7184813144</v>
+        <v>383102.1947739347</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>769873.0474753408</v>
+        <v>769896.7454399943</v>
       </c>
       <c r="B159" t="n">
-        <v>383055.8584668473</v>
+        <v>383173.839001137</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>769702.7215376098</v>
+        <v>769701.8704224699</v>
       </c>
       <c r="B160" t="n">
-        <v>383144.9950190355</v>
+        <v>383064.9917340841</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>769767.9225674773</v>
+        <v>769675.0995473982</v>
       </c>
       <c r="B161" t="n">
-        <v>383061.3360344362</v>
+        <v>383044.1274045265</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>769672.0266369798</v>
+        <v>769880.5024398303</v>
       </c>
       <c r="B162" t="n">
-        <v>383141.2436092586</v>
+        <v>383042.842188406</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>769905.5283526133</v>
+        <v>769670.4782180043</v>
       </c>
       <c r="B163" t="n">
-        <v>383134.9627815944</v>
+        <v>383201.8950923292</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>769713.9159481102</v>
+        <v>769666.0483088688</v>
       </c>
       <c r="B164" t="n">
-        <v>383113.3772206689</v>
+        <v>383166.1686888572</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>769889.7792722607</v>
+        <v>769794.1875589718</v>
       </c>
       <c r="B165" t="n">
-        <v>383068.8986728209</v>
+        <v>383029.3610407411</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>769899.0680684573</v>
+        <v>769907.1776047731</v>
       </c>
       <c r="B166" t="n">
-        <v>383082.861776531</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>769893.4110443764</v>
-      </c>
-      <c r="B167" t="n">
-        <v>383159.1375792376</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>769696.2612534537</v>
-      </c>
-      <c r="B168" t="n">
-        <v>383092.8940139721</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>769812.5805718175</v>
-      </c>
-      <c r="B169" t="n">
-        <v>383055.7986480166</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>769869.3558843945</v>
-      </c>
-      <c r="B170" t="n">
-        <v>383026.0864639539</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>769812.4609341562</v>
-      </c>
-      <c r="B171" t="n">
-        <v>383176.7324550634</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>769687.8355361631</v>
-      </c>
-      <c r="B172" t="n">
-        <v>383146.8408145087</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>769765.1538742676</v>
-      </c>
-      <c r="B173" t="n">
-        <v>383039.0070322661</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>769887.8138391261</v>
-      </c>
-      <c r="B174" t="n">
-        <v>383174.9464784209</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>769708.3187428599</v>
-      </c>
-      <c r="B175" t="n">
-        <v>383129.1861198522</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>769928.8998901814</v>
-      </c>
-      <c r="B176" t="n">
-        <v>383018.7032820612</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>769926.9344570469</v>
-      </c>
-      <c r="B177" t="n">
-        <v>383124.7510876614</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>769680.4523542704</v>
-      </c>
-      <c r="B178" t="n">
-        <v>383087.2968087219</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>769871.2016798677</v>
-      </c>
-      <c r="B179" t="n">
-        <v>383040.9724654006</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>769889.6596345995</v>
-      </c>
-      <c r="B180" t="n">
-        <v>383189.8324798676</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>769711.027617239</v>
-      </c>
-      <c r="B181" t="n">
-        <v>383211.9820255457</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>769708.3785616907</v>
-      </c>
-      <c r="B182" t="n">
-        <v>383068.7192163289</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>769667.4121482968</v>
-      </c>
-      <c r="B183" t="n">
-        <v>383104.0286056418</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>769922.319968364</v>
-      </c>
-      <c r="B184" t="n">
-        <v>383087.5360840446</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>769936.1634344127</v>
-      </c>
-      <c r="B185" t="n">
-        <v>383199.1810948948</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>769887.873657957</v>
-      </c>
-      <c r="B186" t="n">
-        <v>383114.4795748976</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>769907.3741480865</v>
-      </c>
-      <c r="B187" t="n">
-        <v>383149.8487830411</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>769787.3034199456</v>
-      </c>
-      <c r="B188" t="n">
-        <v>383217.6390496265</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>769705.6098684808</v>
-      </c>
-      <c r="B189" t="n">
-        <v>383046.3902141588</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>769817.0754228391</v>
-      </c>
-      <c r="B190" t="n">
-        <v>383213.9474586802</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>769712.0103338063</v>
-      </c>
-      <c r="B191" t="n">
-        <v>383158.9581227456</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>769809.8118786078</v>
-      </c>
-      <c r="B192" t="n">
-        <v>383033.4696458466</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>769660.9518641407</v>
-      </c>
-      <c r="B193" t="n">
-        <v>383051.9276005783</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>769790.1319319861</v>
-      </c>
-      <c r="B194" t="n">
-        <v>383179.5011482732</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>769949.2036403862</v>
-      </c>
-      <c r="B195" t="n">
-        <v>383182.4492979749</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>769666.4294317296</v>
-      </c>
-      <c r="B196" t="n">
-        <v>383157.0525084418</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>769663.7205573504</v>
-      </c>
-      <c r="B197" t="n">
-        <v>383074.2566027484</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>769697.9874112655</v>
-      </c>
-      <c r="B198" t="n">
-        <v>383228.7138224656</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>769906.3914315193</v>
-      </c>
-      <c r="B199" t="n">
-        <v>383202.8726858412</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>769670.1808415065</v>
-      </c>
-      <c r="B200" t="n">
-        <v>383126.3576078118</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>769660.8322264794</v>
-      </c>
-      <c r="B201" t="n">
-        <v>383172.8614076251</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>769893.470863207</v>
-      </c>
-      <c r="B202" t="n">
-        <v>383098.6706757143</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>769683.1014098187</v>
-      </c>
-      <c r="B203" t="n">
-        <v>383230.5596179388</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>769942.7433562302</v>
-      </c>
-      <c r="B204" t="n">
-        <v>383130.3482929115</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>769921.277432966</v>
-      </c>
-      <c r="B205" t="n">
-        <v>383201.026890368</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>769694.4154579805</v>
-      </c>
-      <c r="B206" t="n">
-        <v>383078.0080125254</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>769707.3360262928</v>
-      </c>
-      <c r="B207" t="n">
-        <v>383182.2100226523</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>769887.9334767875</v>
-      </c>
-      <c r="B208" t="n">
-        <v>383054.0126713741</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>769782.8085689241</v>
-      </c>
-      <c r="B209" t="n">
-        <v>383059.490238963</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>769936.2830720741</v>
-      </c>
-      <c r="B210" t="n">
-        <v>383078.247287848</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>769802.1894213924</v>
-      </c>
-      <c r="B211" t="n">
-        <v>383215.7932541534</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>769701.7388210425</v>
-      </c>
-      <c r="B212" t="n">
-        <v>383198.0189218356</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>769797.6945703708</v>
-      </c>
-      <c r="B213" t="n">
-        <v>383057.6444434898</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>769784.5347267359</v>
-      </c>
-      <c r="B214" t="n">
-        <v>383195.3100474565</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>769814.3067296294</v>
-      </c>
-      <c r="B215" t="n">
-        <v>383191.6184565101</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>769682.2981497435</v>
-      </c>
-      <c r="B216" t="n">
-        <v>383102.1828101686</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>769693.4327414132</v>
-      </c>
-      <c r="B217" t="n">
-        <v>383131.0319153254</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>769903.7423759708</v>
-      </c>
-      <c r="B218" t="n">
-        <v>383059.6098766243</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>769925.0886615737</v>
-      </c>
-      <c r="B219" t="n">
-        <v>383109.8650862146</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>769671.0439204124</v>
-      </c>
-      <c r="B220" t="n">
-        <v>383194.2675120586</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>769698.1070489269</v>
-      </c>
-      <c r="B221" t="n">
-        <v>383107.7800154188</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>769914.0138887346</v>
-      </c>
-      <c r="B222" t="n">
-        <v>383020.5490775343</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>769930.7456856546</v>
-      </c>
-      <c r="B223" t="n">
-        <v>383033.5892835079</v>
+        <v>383160.4535636011</v>
       </c>
     </row>
   </sheetData>
